--- a/utils/dummy.xlsx
+++ b/utils/dummy.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -897,9 +897,405 @@
         <v>8/12/2025, 11:25:20 am</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B46" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C46" t="str">
+        <v>12/12/2025, 11:45:24 am</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B47" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C47" t="str">
+        <v>12/12/2025, 11:45:29 am</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B48" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C48" t="str">
+        <v>12/12/2025, 11:45:30 am</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B49" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C49" t="str">
+        <v>12/12/2025, 11:45:32 am</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B50" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C50" t="str">
+        <v>12/12/2025, 11:45:35 am</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B51" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C51" t="str">
+        <v>12/12/2025, 11:45:40 am</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B52" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C52" t="str">
+        <v>12/12/2025, 12:10:48 pm</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B53" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C53" t="str">
+        <v>12/12/2025, 12:10:54 pm</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B54" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C54" t="str">
+        <v>12/12/2025, 12:10:56 pm</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B55" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C55" t="str">
+        <v>12/12/2025, 12:10:59 pm</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B56" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C56" t="str">
+        <v>12/12/2025, 12:11:01 pm</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B57" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C57" t="str">
+        <v>12/12/2025, 12:11:04 pm</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B58" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C58" t="str">
+        <v>12/12/2025, 1:01:06 pm</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B59" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C59" t="str">
+        <v>12/12/2025, 1:01:10 pm</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B60" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C60" t="str">
+        <v>12/12/2025, 1:01:15 pm</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B61" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C61" t="str">
+        <v>12/12/2025, 1:01:21 pm</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B62" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C62" t="str">
+        <v>12/12/2025, 1:01:27 pm</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B63" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C63" t="str">
+        <v>12/12/2025, 2:15:14 pm</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B64" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C64" t="str">
+        <v>12/12/2025, 2:15:20 pm</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B65" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C65" t="str">
+        <v>12/12/2025, 2:15:24 pm</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B66" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C66" t="str">
+        <v>12/12/2025, 2:15:26 pm</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B67" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C67" t="str">
+        <v>12/12/2025, 2:15:30 pm</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B68" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C68" t="str">
+        <v>12/12/2025, 3:02:45 pm</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B69" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C69" t="str">
+        <v>12/12/2025, 3:02:50 pm</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B70" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C70" t="str">
+        <v>12/12/2025, 3:02:59 pm</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B71" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C71" t="str">
+        <v>12/12/2025, 3:03:00 pm</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B72" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C72" t="str">
+        <v>12/12/2025, 3:03:11 pm</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B73" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C73" t="str">
+        <v>12/12/2025, 3:03:16 pm</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B74" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C74" t="str">
+        <v>12/12/2025, 3:03:29 pm</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B75" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C75" t="str">
+        <v>12/12/2025, 3:03:35 pm</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B76" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C76" t="str">
+        <v>12/12/2025, 3:03:39 pm</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B77" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C77" t="str">
+        <v>12/12/2025, 3:03:41 pm</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B78" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C78" t="str">
+        <v>12/12/2025, 3:03:53 pm</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B79" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C79" t="str">
+        <v>12/12/2025, 3:04:05 pm</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B80" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C80" t="str">
+        <v>12/12/2025, 3:04:17 pm</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B81" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C81" t="str">
+        <v>12/12/2025, 3:04:28 pm</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C45"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C81"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/utils/dummy.xlsx
+++ b/utils/dummy.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1293,9 +1293,1175 @@
         <v>12/12/2025, 3:04:28 pm</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B82" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C82" t="str">
+        <v>14/12/2025, 6:15:17 pm</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B83" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C83" t="str">
+        <v>14/12/2025, 6:15:26 pm</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B84" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C84" t="str">
+        <v>14/12/2025, 6:15:36 pm</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B85" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C85" t="str">
+        <v>14/12/2025, 6:15:50 pm</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B86" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C86" t="str">
+        <v>14/12/2025, 6:15:57 pm</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B87" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C87" t="str">
+        <v>14/12/2025, 6:16:01 pm</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B88" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C88" t="str">
+        <v>14/12/2025, 6:20:05 pm</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B89" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C89" t="str">
+        <v>14/12/2025, 6:20:31 pm</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B90" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C90" t="str">
+        <v>14/12/2025, 6:20:46 pm</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B91" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C91" t="str">
+        <v>14/12/2025, 6:21:06 pm</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B92" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C92" t="str">
+        <v>14/12/2025, 6:21:21 pm</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B93" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C93" t="str">
+        <v>14/12/2025, 6:21:32 pm</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B94" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C94" t="str">
+        <v>14/12/2025, 6:21:45 pm</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B95" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C95" t="str">
+        <v>14/12/2025, 6:21:58 pm</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B96" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C96" t="str">
+        <v>15/12/2025, 11:27:16 am</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B97" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C97" t="str">
+        <v>15/12/2025, 11:28:28 am</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B98" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C98" t="str">
+        <v>15/12/2025, 11:28:40 am</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B99" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C99" t="str">
+        <v>15/12/2025, 11:29:28 am</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B100" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C100" t="str">
+        <v>15/12/2025, 11:29:43 am</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B101" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C101" t="str">
+        <v>15/12/2025, 11:29:53 am</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B102" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C102" t="str">
+        <v>15/12/2025, 11:35:16 am</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B103" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C103" t="str">
+        <v>15/12/2025, 11:35:29 am</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B104" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C104" t="str">
+        <v>15/12/2025, 11:35:39 am</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B105" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C105" t="str">
+        <v>15/12/2025, 11:35:50 am</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B106" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C106" t="str">
+        <v>15/12/2025, 11:36:00 am</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B107" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C107" t="str">
+        <v>15/12/2025, 11:36:25 am</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B108" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C108" t="str">
+        <v>15/12/2025, 11:36:33 am</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B109" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C109" t="str">
+        <v>15/12/2025, 11:36:40 am</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B110" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C110" t="str">
+        <v>15/12/2025, 11:37:07 am</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B111" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C111" t="str">
+        <v>15/12/2025, 11:38:10 am</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B112" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C112" t="str">
+        <v>15/12/2025, 11:40:21 am</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B113" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C113" t="str">
+        <v>15/12/2025, 11:40:41 am</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B114" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C114" t="str">
+        <v>15/12/2025, 11:40:50 am</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B115" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C115" t="str">
+        <v>15/12/2025, 11:51:09 am</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B116" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C116" t="str">
+        <v>15/12/2025, 11:53:25 am</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B117" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C117" t="str">
+        <v>15/12/2025, 11:54:05 am</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B118" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C118" t="str">
+        <v>15/12/2025, 11:54:27 am</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B119" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C119" t="str">
+        <v>15/12/2025, 11:54:42 am</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B120" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C120" t="str">
+        <v>15/12/2025, 11:54:56 am</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B121" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C121" t="str">
+        <v>15/12/2025, 11:55:12 am</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B122" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C122" t="str">
+        <v>15/12/2025, 11:55:29 am</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B123" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C123" t="str">
+        <v>15/12/2025, 12:06:45 pm</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B124" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C124" t="str">
+        <v>15/12/2025, 12:07:05 pm</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B125" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C125" t="str">
+        <v>15/12/2025, 12:07:15 pm</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B126" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C126" t="str">
+        <v>15/12/2025, 12:08:00 pm</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B127" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C127" t="str">
+        <v>15/12/2025, 12:09:01 pm</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B128" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C128" t="str">
+        <v>15/12/2025, 12:09:08 pm</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B129" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C129" t="str">
+        <v>15/12/2025, 3:43:11 pm</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B130" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C130" t="str">
+        <v>16/12/2025, 11:49:50 am</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B131" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C131" t="str">
+        <v>16/12/2025, 12:05:12 pm</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B132" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C132" t="str">
+        <v>16/12/2025, 12:41:45 pm</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B133" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C133" t="str">
+        <v>16/12/2025, 12:47:36 pm</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B134" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C134" t="str">
+        <v>16/12/2025, 12:47:53 pm</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B135" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C135" t="str">
+        <v>16/12/2025, 12:55:44 pm</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B136" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C136" t="str">
+        <v>16/12/2025, 12:56:07 pm</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B137" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C137" t="str">
+        <v>16/12/2025, 12:56:41 pm</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B138" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C138" t="str">
+        <v>16/12/2025, 2:27:20 pm</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B139" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C139" t="str">
+        <v>16/12/2025, 2:36:58 pm</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B140" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C140" t="str">
+        <v>16/12/2025, 2:51:49 pm</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B141" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C141" t="str">
+        <v>16/12/2025, 3:06:29 pm</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B142" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C142" t="str">
+        <v>16/12/2025, 3:20:14 pm</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B143" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C143" t="str">
+        <v>16/12/2025, 3:27:58 pm</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B144" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C144" t="str">
+        <v>16/12/2025, 3:28:21 pm</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B145" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C145" t="str">
+        <v>16/12/2025, 3:28:43 pm</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B146" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C146" t="str">
+        <v>16/12/2025, 3:29:07 pm</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B147" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C147" t="str">
+        <v>16/12/2025, 3:31:14 pm</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B148" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C148" t="str">
+        <v>16/12/2025, 3:31:30 pm</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B149" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C149" t="str">
+        <v>16/12/2025, 3:31:48 pm</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B150" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C150" t="str">
+        <v>16/12/2025, 3:32:03 pm</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B151" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C151" t="str">
+        <v>16/12/2025, 3:32:24 pm</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B152" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C152" t="str">
+        <v>16/12/2025, 3:38:06 pm</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B153" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C153" t="str">
+        <v>16/12/2025, 3:38:15 pm</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B154" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C154" t="str">
+        <v>16/12/2025, 3:38:23 pm</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B155" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C155" t="str">
+        <v>16/12/2025, 3:39:18 pm</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B156" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C156" t="str">
+        <v>16/12/2025, 3:39:25 pm</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B157" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C157" t="str">
+        <v>16/12/2025, 3:39:33 pm</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B158" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C158" t="str">
+        <v>16/12/2025, 4:28:29 pm</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B159" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C159" t="str">
+        <v>16/12/2025, 4:28:51 pm</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B160" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C160" t="str">
+        <v>16/12/2025, 4:29:14 pm</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B161" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C161" t="str">
+        <v>16/12/2025, 4:29:32 pm</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B162" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C162" t="str">
+        <v>16/12/2025, 4:29:46 pm</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B163" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C163" t="str">
+        <v>16/12/2025, 4:30:02 pm</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B164" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C164" t="str">
+        <v>16/12/2025, 4:30:29 pm</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B165" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C165" t="str">
+        <v>16/12/2025, 4:31:01 pm</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B166" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C166" t="str">
+        <v>16/12/2025, 4:31:30 pm</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B167" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C167" t="str">
+        <v>16/12/2025, 4:38:35 pm</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B168" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C168" t="str">
+        <v>16/12/2025, 4:38:48 pm</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B169" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C169" t="str">
+        <v>16/12/2025, 4:39:05 pm</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B170" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C170" t="str">
+        <v>16/12/2025, 4:39:48 pm</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B171" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C171" t="str">
+        <v>16/12/2025, 4:39:59 pm</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B172" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C172" t="str">
+        <v>16/12/2025, 4:40:07 pm</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B173" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C173" t="str">
+        <v>17/12/2025, 1:07:21 pm</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B174" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C174" t="str">
+        <v>17/12/2025, 1:07:29 pm</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B175" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C175" t="str">
+        <v>17/12/2025, 1:07:37 pm</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B176" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C176" t="str">
+        <v>17/12/2025, 1:07:50 pm</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B177" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C177" t="str">
+        <v>17/12/2025, 1:07:56 pm</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B178" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C178" t="str">
+        <v>17/12/2025, 1:08:02 pm</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B179" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C179" t="str">
+        <v>17/12/2025, 1:12:21 pm</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B180" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C180" t="str">
+        <v>17/12/2025, 1:12:34 pm</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B181" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C181" t="str">
+        <v>17/12/2025, 1:12:54 pm</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B182" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C182" t="str">
+        <v>17/12/2025, 1:13:09 pm</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B183" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C183" t="str">
+        <v>17/12/2025, 1:13:20 pm</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B184" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C184" t="str">
+        <v>17/12/2025, 1:13:31 pm</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B185" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C185" t="str">
+        <v>17/12/2025, 1:13:41 pm</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B186" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C186" t="str">
+        <v>17/12/2025, 1:13:57 pm</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>stuti12345@gmail.com</v>
+      </c>
+      <c r="B187" t="str">
+        <v>stuti123</v>
+      </c>
+      <c r="C187" t="str">
+        <v>17/12/2025, 1:14:08 pm</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C81"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C187"/>
   </ignoredErrors>
 </worksheet>
 </file>